--- a/Ch08Ex03/Dice Roll.xlsx
+++ b/Ch08Ex03/Dice Roll.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Dice 1</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t>Roll</t>
+  </si>
+  <si>
+    <t>Possible Results</t>
+  </si>
+  <si>
+    <t>Frequency</t>
   </si>
 </sst>
 </file>
@@ -80,6 +86,56 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>494179</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>131108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="1636058"/>
+          <a:ext cx="7677150" cy="3448050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,18 +425,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
+    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,8 +450,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -402,8 +468,16 @@
         <f>SUM(A2:B2)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F12" si="0">MODE(E2,C2:C31)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -411,11 +485,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C31" si="0">SUM(A3:B3)</f>
+        <f t="shared" ref="C3:C31" si="1">SUM(A3:B3)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f>E2+1</f>
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -423,11 +505,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E12" si="2">E3+1</f>
+        <v>4</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -435,11 +525,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -447,11 +545,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -459,95 +565,143 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -555,11 +709,11 @@
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -567,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -579,7 +733,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -591,7 +745,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -603,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -615,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -627,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -639,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -651,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -663,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -675,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -687,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -699,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -711,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -723,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -735,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -747,12 +901,13 @@
         <v>2</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
